--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nroohh/Desktop/ERA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91880FA3-98E6-B344-9F28-9E316B630AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643A5747-5FFC-3F41-BC6C-0B8C63002321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20640" xr2:uid="{66884CBB-8EC7-FD4A-B664-A96BCFBC9A08}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20640" activeTab="2" xr2:uid="{66884CBB-8EC7-FD4A-B664-A96BCFBC9A08}"/>
   </bookViews>
   <sheets>
     <sheet name="exp(t1)" sheetId="1" r:id="rId1"/>
@@ -14125,7 +14125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61547498-E666-9642-8EE6-B7F9CF8E785A}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
@@ -15101,7 +15101,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53">
-        <f t="shared" ref="B53:B58" si="0">B43-1.5</f>
+        <f t="shared" ref="B53:B56" si="0">B43-1.5</f>
         <v>2.5</v>
       </c>
       <c r="C53">
@@ -15159,8 +15159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B4AF81-9943-FE4B-B3ED-D8FECE65EEA1}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="G14:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
